--- a/tornado/static/model_score_excel.xlsx
+++ b/tornado/static/model_score_excel.xlsx
@@ -20,7 +20,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">温馨提示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">上传时，请删除此行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">请严格按照模板示例格式进行数据填充，若无数据，则请填充：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF3333"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">未知</t>
+    </r>
+  </si>
   <si>
     <t xml:space="preserve">学号</t>
   </si>
@@ -63,6 +125,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">考查</t>
     </r>
@@ -71,6 +134,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">/</t>
     </r>
@@ -79,9 +143,40 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">考试</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">160120211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">小李</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1601202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016-2017-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0500700039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">跨文化交际</t>
+  </si>
+  <si>
+    <t xml:space="preserve">任选</t>
+  </si>
+  <si>
+    <t xml:space="preserve">缺考</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20170730</t>
+  </si>
+  <si>
+    <t xml:space="preserve">考查</t>
   </si>
 </sst>
 </file>
@@ -91,12 +186,13 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Noto Sans CJK SC Regular"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -114,9 +210,37 @@
       <family val="0"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Noto Sans CJK SC Regular"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF3333"/>
+      <name val="Noto Sans CJK SC Regular"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Noto Sans CJK SC Regular"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -166,12 +290,24 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -184,6 +320,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF3333"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -192,67 +388,127 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M65536"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.36744186046512"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.62790697674419"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.90697674418605"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.3395348837209"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.4279069767442"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="31.3813953488372"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.706976744186"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="10.3395348837209"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.706976744186"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.75348837209302"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.48372093023256"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.5813953488372"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.9209302325581"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.6046511627907"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="19.3209302325581"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="10.5813953488372"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="I2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="J2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="K2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="L2" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="M2" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="3" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:M1"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.699305555555555" right="0.699305555555555" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
